--- a/data/trans_orig/Q24A01-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q24A01-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.772354582427</v>
+        <v>16.84305839985981</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>16.2456419574464</v>
+        <v>16.2301530632728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.63117997978727</v>
+        <v>14.66023204630494</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14.94455944656891</v>
+        <v>14.80623881278538</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>12.12116905830447</v>
+        <v>12.17995248912268</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.58316091584844</v>
+        <v>12.60235636506243</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>11.63112742147466</v>
+        <v>11.54529967691216</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>9.52395998217165</v>
+        <v>9.596220533882903</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>14.95942872573042</v>
+        <v>15.0142662322261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14.87799063585967</v>
+        <v>14.87448803438272</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13.3584577345604</v>
+        <v>13.45591032448053</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>12.87529793088973</v>
+        <v>12.85094649447639</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.5907243090087</v>
+        <v>19.5251400805798</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.29169880694726</v>
+        <v>18.2876404495777</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.29221157593277</v>
+        <v>16.37665484528122</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.61444645852767</v>
+        <v>17.68055281388576</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.20157978880032</v>
+        <v>14.30046698312731</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.14711312109307</v>
+        <v>14.26409673408536</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.16155143781375</v>
+        <v>13.16666189572513</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.55370194297715</v>
+        <v>11.56719944902189</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>16.78950604810703</v>
+        <v>16.82830696740326</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16.19926759712761</v>
+        <v>16.22018117553781</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14.59503220372162</v>
+        <v>14.60992146109493</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>14.62830266137564</v>
+        <v>14.65662052765028</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>10.44035658183537</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>9.161748966999266</v>
+        <v>9.161748966999264</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>15.17997930280244</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15.81731364386403</v>
+        <v>15.79333116369016</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>15.47510714892646</v>
+        <v>15.46426674410627</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12.47550924488523</v>
+        <v>12.44263281376083</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.23332867717085</v>
+        <v>12.29847429224546</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>11.6913942658002</v>
+        <v>11.58370933326185</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>11.19721638495091</v>
+        <v>11.2308524911136</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>9.634290488578293</v>
+        <v>9.710624845239195</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>8.51091495252771</v>
+        <v>8.427304728725684</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>14.59730632617154</v>
+        <v>14.59545574706973</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13.87654896049182</v>
+        <v>13.90595386267509</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11.44906873569556</v>
+        <v>11.3963277045707</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>10.81602560427253</v>
+        <v>10.72645136234459</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.37878538532218</v>
+        <v>17.37005749180735</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.2703081800748</v>
+        <v>17.21371027819205</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.11658354889979</v>
+        <v>14.16265612860153</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.63662491627705</v>
+        <v>14.65910405671237</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>13.77148444695517</v>
+        <v>13.70726482474454</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>13.07250390961165</v>
+        <v>13.03517743534147</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>11.26626547199476</v>
+        <v>11.3085470013751</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>9.956668203149462</v>
+        <v>9.858833078079968</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>15.81683380809675</v>
+        <v>15.86769792053721</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15.1766488781988</v>
+        <v>15.29092630938195</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12.68638537011031</v>
+        <v>12.61526143699842</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>12.22114874956581</v>
+        <v>12.20670384204776</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>12.83992366240369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14.31238546520229</v>
+        <v>14.31238546520228</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>12.6818837503228</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.09562078482963</v>
+        <v>16.03823388613</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>13.53183811071845</v>
+        <v>13.66100200634289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11.83039949009821</v>
+        <v>11.83844335056475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.07833784227681</v>
+        <v>13.03506658876154</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>11.71528459169309</v>
+        <v>11.66911029534591</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.17877274884925</v>
+        <v>11.19028606172834</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.453016343861897</v>
+        <v>8.43729575382641</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>9.059972733307839</v>
+        <v>9.029840149387198</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>14.75859649287926</v>
+        <v>14.8172307930768</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12.8749342730992</v>
+        <v>12.9026926864747</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10.63765837695823</v>
+        <v>10.57399738329752</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>11.66933463994647</v>
+        <v>11.58268318958122</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.8191885127558</v>
+        <v>17.86492055123243</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.15734889510388</v>
+        <v>16.15203571511062</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.08250976710315</v>
+        <v>14.12284085970029</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.49514454828445</v>
+        <v>15.67986111839305</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.87011917738077</v>
+        <v>13.74823992469886</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.39150564760106</v>
+        <v>13.395771327633</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.46070864562271</v>
+        <v>10.46158258770232</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.57805711195832</v>
+        <v>10.63996365850995</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.19959013197019</v>
+        <v>16.19650218596502</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14.64559400998</v>
+        <v>14.61065626918358</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12.21619970887939</v>
+        <v>12.1865693338304</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>13.25707647591902</v>
+        <v>13.27446392060865</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>13.74006448669746</v>
+        <v>13.89208230968568</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>12.99766190662761</v>
+        <v>12.9487943564821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11.1235345275862</v>
+        <v>11.32499132124402</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9.709546695170712</v>
+        <v>9.707904635410648</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>9.902955110991989</v>
+        <v>9.74503120177949</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>10.32530186551178</v>
+        <v>10.44539167827913</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.568642876908443</v>
+        <v>7.579272715991408</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>8.404613562069173</v>
+        <v>8.367463555406244</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>12.67737061878121</v>
+        <v>12.55737878054268</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12.32778631385292</v>
+        <v>12.38714049939622</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9.989256354700213</v>
+        <v>10.02425342158444</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>9.498933680300757</v>
+        <v>9.411515753121659</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.49903799978407</v>
+        <v>16.4930764916049</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.31008582369206</v>
+        <v>16.46138761452904</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.26345910961254</v>
+        <v>14.40274730546073</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.64322992120339</v>
+        <v>12.74162379142112</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>13.41596337288457</v>
+        <v>13.32739881357762</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>14.01083913050781</v>
+        <v>14.33441331055862</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>10.01419987238019</v>
+        <v>10.04807825554822</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>10.15885999296425</v>
+        <v>10.13481516740236</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>14.77769561899593</v>
+        <v>14.87553854622881</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14.94271368635676</v>
+        <v>14.83413297553885</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12.12334552729511</v>
+        <v>12.09818860247576</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>11.34593823506715</v>
+        <v>11.30931316847421</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.30644188470997</v>
+        <v>16.34256263687982</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15.53482509366135</v>
+        <v>15.46612991336464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13.55437434204133</v>
+        <v>13.54943710834035</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13.05825350335226</v>
+        <v>13.07250369543801</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>12.05803051874924</v>
+        <v>12.08981958728243</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.0529704725146</v>
+        <v>12.11059458275026</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>10.43201322303351</v>
+        <v>10.43555174553007</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.223230686545952</v>
+        <v>9.222277015051212</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>14.84991108016456</v>
+        <v>14.88661326069231</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14.21577574677623</v>
+        <v>14.20228708417047</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12.33014925278013</v>
+        <v>12.30198478694307</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>11.52107670407753</v>
+        <v>11.48131528429979</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.39848685817939</v>
+        <v>17.3856591815582</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.62334213685479</v>
+        <v>16.60466577118371</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.56357405759928</v>
+        <v>14.57752194124222</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.49465049803793</v>
+        <v>14.45810558582457</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.19836472304118</v>
+        <v>13.20761053505447</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.10329645683627</v>
+        <v>13.16073960881893</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.39132159167239</v>
+        <v>11.38024534968623</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.0504802681441</v>
+        <v>10.05833822155341</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.64698212657242</v>
+        <v>15.6665873858842</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14.99498489200476</v>
+        <v>15.00583916482031</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13.0312699613872</v>
+        <v>13.01814881060884</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>12.35495834953163</v>
+        <v>12.34253858053923</v>
       </c>
     </row>
     <row r="19">
